--- a/src/test/resources/TestQlProduct.xlsx
+++ b/src/test/resources/TestQlProduct.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>TestCaseName</t>
   </si>

--- a/src/test/resources/TestQlProduct.xlsx
+++ b/src/test/resources/TestQlProduct.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="45">
   <si>
     <t>TestCaseName</t>
   </si>

--- a/src/test/resources/TestQlProduct.xlsx
+++ b/src/test/resources/TestQlProduct.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -597,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">

--- a/src/test/resources/TestQlProduct.xlsx
+++ b/src/test/resources/TestQlProduct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPOLY\2025\FALL\JAVA3\eclipse-workspace\asmkiemthu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPOLY\2025\FALL\JAVA3\eclipse-workspace\asmkiemthu\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE02DCC-2C11-41CB-8D39-E509113A923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB2B75-85A0-486D-9618-6F1846CD2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1500" windowWidth="14400" windowHeight="8170" xr2:uid="{F4450DCC-7498-4BF2-9B01-D15D4A48C4AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F4450DCC-7498-4BF2-9B01-D15D4A48C4AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -54,121 +54,130 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Case 1: Thêm đúng SP 1</t>
-  </si>
-  <si>
-    <t>Giày Nike Air Max</t>
-  </si>
-  <si>
     <t>Thêm mới sản phẩm thành công!</t>
   </si>
   <si>
-    <t>Case 2: Thêm đúng SP 2</t>
-  </si>
-  <si>
-    <t>Giày Adidas Ultra</t>
-  </si>
-  <si>
-    <t>Case 3: Thêm đúng SP 3</t>
-  </si>
-  <si>
-    <t>Giày Puma Suede</t>
-  </si>
-  <si>
     <t>Case 4: Trống Tên</t>
   </si>
   <si>
-    <t>Không tìm thấy thông báo</t>
-  </si>
-  <si>
     <t>Case 5: Trống Giá</t>
   </si>
   <si>
-    <t>Giày Converse</t>
-  </si>
-  <si>
-    <t>Case 6: Giá Âm</t>
-  </si>
-  <si>
-    <t>Giày Lỗi Giá Âm</t>
-  </si>
-  <si>
-    <t>Giá phải lớn hơn 0</t>
-  </si>
-  <si>
-    <t>Case 7: Giá bằng 0</t>
-  </si>
-  <si>
     <t>Giày 0 Đồng</t>
   </si>
   <si>
-    <t>Case 8: Giá là chữ</t>
-  </si>
-  <si>
-    <t>Giày Lỗi Chữ</t>
-  </si>
-  <si>
-    <t>nam tram nghin</t>
-  </si>
-  <si>
-    <t>Giá phải là số</t>
-  </si>
-  <si>
-    <t>Case 9: Tên quá ngắn</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Tên quá ngắn</t>
-  </si>
-  <si>
-    <t>Case 10: Tên quá dài</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm này dài khủng khiếp dài đến mức vượt qua giới hạn của database luôn rồi nha</t>
-  </si>
-  <si>
-    <t>Tên quá dài</t>
-  </si>
-  <si>
-    <t>Case 11: Ký tự đặc biệt</t>
-  </si>
-  <si>
     <t>Giày @#$%^&amp;*</t>
   </si>
   <si>
-    <t>Case 12: Tên có khoảng trắng</t>
-  </si>
-  <si>
-    <t>Giày Space Trắng</t>
-  </si>
-  <si>
-    <t>Case 13: Giá số lẻ</t>
-  </si>
-  <si>
-    <t>Giày Giá Lẻ</t>
-  </si>
-  <si>
-    <t>Case 14: Giá quá lớn</t>
-  </si>
-  <si>
-    <t>Giày Dát Vàng</t>
-  </si>
-  <si>
-    <t>Giá vượt quá giới hạn</t>
-  </si>
-  <si>
-    <t>Case 15: SQL Injection</t>
-  </si>
-  <si>
-    <t>Giày ' OR 1=1 --</t>
+    <t>Case 1: Thêm SP chuẩn</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Nam</t>
+  </si>
+  <si>
+    <t>Case 2: Tên có số</t>
+  </si>
+  <si>
+    <t>Giày Nike Air 2024</t>
+  </si>
+  <si>
+    <t>Case 3: Tên siêu dài</t>
+  </si>
+  <si>
+    <t>Giày Thể Thao Chạy Bộ Siêu Nhẹ Chống Nước Bản Cao Cấp Nhất Năm Nay</t>
+  </si>
+  <si>
+    <t>(bỏ trống)</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm không được để trống</t>
+  </si>
+  <si>
+    <t>Giày Biti's Hunter</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm không được để trống</t>
+  </si>
+  <si>
+    <t>Case 6: Trống cả Tên và Giá</t>
+  </si>
+  <si>
+    <t>Case 7: Tên chỉ có dấu cách</t>
+  </si>
+  <si>
+    <t>(Gõ 3 dấu cách)</t>
+  </si>
+  <si>
+    <t>Case 8: Tên quá ngắn (1 ký tự)</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm phải từ 2 ký tự</t>
+  </si>
+  <si>
+    <t>Case 9: Ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Tên không được chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Case 10: Giá bằng 0</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm phải lớn hơn 0</t>
+  </si>
+  <si>
+    <t>Case 11: Giá âm</t>
+  </si>
+  <si>
+    <t>Giày Bị Lỗ</t>
+  </si>
+  <si>
+    <t>Case 12: Giá là chữ</t>
+  </si>
+  <si>
+    <t>Giày Chữ</t>
+  </si>
+  <si>
+    <t>hai tram nghin</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm phải là số</t>
+  </si>
+  <si>
+    <t>Case 13: Giá chứa ký tự lạ</t>
+  </si>
+  <si>
+    <t>Giày Ngoại Tệ</t>
+  </si>
+  <si>
+    <t>500$00</t>
+  </si>
+  <si>
+    <t>Case 14: Giá quá lớn (Tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Giày Kim Cương</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm vượt mức cho phép</t>
+  </si>
+  <si>
+    <t>Case 15: Trùng tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm đã tồn tại</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Web không hiển thị thông báo lỗi</t>
   </si>
 </sst>
 </file>
@@ -176,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,15 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -233,13 +249,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,13 +576,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49DEFC-85AA-40DA-9534-0DDE469F437F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.7265625"/>
+    <col min="2" max="2" customWidth="true" width="35.81640625"/>
+    <col min="3" max="3" customWidth="true" width="17.36328125"/>
+    <col min="4" max="4" customWidth="true" width="22.26953125"/>
+    <col min="5" max="5" customWidth="true" width="33.26953125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,303 +609,308 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>199000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3200000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="2">
         <v>500000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>-50000</v>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>150000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>150000</v>
+        <v>900000</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="168.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-50000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
+        <v>99999999999</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>600000</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2">
-        <v>990000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <v>500000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2">
-        <v>199000.5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <v>999999999</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2">
-        <v>350000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E16" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>